--- a/performance evaluation/performance test cases.xlsx
+++ b/performance evaluation/performance test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucco\Documents\GitHub\5LIC0\performance evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFA1CBE-0A76-4C18-A101-08D86B017AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FAE3D2-8AE7-4DC6-8963-BB44B56D63DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A2C6128-5C33-4779-88E9-C18955B2281D}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{3A2C6128-5C33-4779-88E9-C18955B2281D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="2">
+  <futureMetadata name="XLRICHVALUE" count="12">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -55,20 +55,120 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="2">
+  <valueMetadata count="12">
     <bk>
       <rc t="1" v="0"/>
     </bk>
     <bk>
       <rc t="1" v="1"/>
     </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
+    <bk>
+      <rc t="1" v="10"/>
+    </bk>
+    <bk>
+      <rc t="1" v="11"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>Test case</t>
   </si>
@@ -179,6 +279,36 @@
   </si>
   <si>
     <t>48,,85%</t>
+  </si>
+  <si>
+    <t>Disturbers</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>8d1</t>
+  </si>
+  <si>
+    <t>One disturber in corner opposite to server 'eg wifi?)</t>
+  </si>
+  <si>
+    <t>8d2</t>
+  </si>
+  <si>
+    <t>two disturbers in corner (eg wifi?)</t>
+  </si>
+  <si>
+    <t>8d4</t>
+  </si>
+  <si>
+    <t>two disturbers in corner + 2 in aisles</t>
+  </si>
+  <si>
+    <t>8d20</t>
+  </si>
+  <si>
+    <t>two disturbers in corner + 18 randmy positionne din aisle</t>
   </si>
 </sst>
 </file>
@@ -258,26 +388,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,13 +466,53 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="12">
   <rv s="0">
     <v>0</v>
     <v>5</v>
   </rv>
   <rv s="0">
     <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>7</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>8</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>9</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>10</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>11</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -362,6 +531,16 @@
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
   <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+  <rel r:id="rId8"/>
+  <rel r:id="rId9"/>
+  <rel r:id="rId10"/>
+  <rel r:id="rId11"/>
+  <rel r:id="rId12"/>
 </richValueRels>
 </file>
 
@@ -682,1258 +861,2007 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCF0C3D-3D26-4320-B15C-D27C51D49D32}">
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AK41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="18.140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="31" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="4"/>
-    <col min="14" max="14" width="11" style="4" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="4" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="4" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="4" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" style="4" customWidth="1"/>
-    <col min="23" max="24" width="12.28515625" style="4" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="4" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="4" customWidth="1"/>
-    <col min="27" max="27" width="14" style="4" customWidth="1"/>
-    <col min="28" max="28" width="13.28515625" style="4" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="4" customWidth="1"/>
-    <col min="30" max="30" width="15.140625" style="4" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" style="4" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="4"/>
-    <col min="33" max="33" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="11" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" style="1" customWidth="1"/>
+    <col min="24" max="25" width="12.28515625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="14" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="15.140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="13.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="9.140625" style="1"/>
+    <col min="34" max="34" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AI1" s="11" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ1" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="N2" s="3" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="O2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3" t="s">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="2"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AJ2" s="7"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="2"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="AJ3" s="7"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
         <v>18</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <f xml:space="preserve"> D4*C4</f>
         <v>90</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <v>1000</v>
       </c>
-      <c r="I4" s="9">
+      <c r="H4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4">
         <v>1724.3</v>
       </c>
-      <c r="J4" s="9">
+      <c r="K4">
         <v>30813</v>
       </c>
-      <c r="K4" s="9">
+      <c r="L4">
         <v>11190</v>
       </c>
-      <c r="M4" s="6">
+      <c r="N4" s="3">
         <v>0.46560000000000001</v>
       </c>
-      <c r="N4" s="12">
+      <c r="O4" s="5">
         <v>7.08</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="1">
         <v>0.01</v>
       </c>
-      <c r="P4" s="4">
+      <c r="Q4" s="1">
         <v>49.7</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="R4" s="3">
         <v>0.96699999999999997</v>
       </c>
-      <c r="R4" s="12">
+      <c r="S4" s="5">
         <v>17.38</v>
       </c>
-      <c r="S4" s="4">
+      <c r="T4" s="1">
         <v>0.09</v>
       </c>
-      <c r="T4" s="4">
+      <c r="U4" s="1">
         <v>57.82</v>
       </c>
-      <c r="U4" s="5">
+      <c r="V4" s="3">
         <v>0.86099999999999999</v>
       </c>
-      <c r="V4" s="12">
+      <c r="W4" s="5">
         <v>6.99</v>
       </c>
-      <c r="W4" s="4">
+      <c r="X4" s="1">
         <v>0.01</v>
       </c>
-      <c r="X4" s="4">
+      <c r="Y4" s="1">
         <v>50.02</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Z4" s="11">
         <v>0.97299999999999998</v>
       </c>
-      <c r="Z4" s="12">
+      <c r="AA4" s="5">
         <v>1.25</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AB4" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AC4" s="1">
         <v>1.6</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AD4" s="3">
         <v>0.78800000000000003</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AE4" s="1">
         <v>3.2250000000000001</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="AF4" s="1">
         <v>3.1160000000000001</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AG4" s="1">
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="AG4" s="4">
+      <c r="AH4" s="1">
         <v>6.5500000000000003E-2</v>
       </c>
-      <c r="AI4" s="2" t="e" vm="1">
+      <c r="AJ4" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="AJ4" s="2"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <f>1+A4</f>
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
         <v>18</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <f t="shared" ref="E5:E6" si="0" xml:space="preserve"> D5*C5</f>
         <v>90</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>20</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="1">
         <v>1000</v>
       </c>
-      <c r="I5" s="9">
+      <c r="H5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5">
         <v>618</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9">
+      <c r="L5">
         <v>12272</v>
       </c>
-      <c r="M5" s="6">
+      <c r="N5" s="3">
         <v>0.57399999999999995</v>
       </c>
-      <c r="N5" s="12">
+      <c r="O5" s="5">
         <v>14.513999999999999</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="1">
         <v>0.03</v>
       </c>
-      <c r="P5" s="4">
+      <c r="Q5" s="1">
         <v>79.525999999999996</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="3">
         <v>0.96330000000000005</v>
       </c>
-      <c r="R5" s="12">
+      <c r="S5" s="5">
         <v>42.26</v>
       </c>
-      <c r="S5" s="4">
+      <c r="T5" s="1">
         <v>0.13</v>
       </c>
-      <c r="T5" s="4">
+      <c r="U5" s="1">
         <v>117.84</v>
       </c>
-      <c r="U5" s="5">
+      <c r="V5" s="3">
         <v>0.96609999999999996</v>
       </c>
-      <c r="V5" s="12">
+      <c r="W5" s="5">
         <v>14.147</v>
       </c>
-      <c r="W5" s="4">
+      <c r="X5" s="1">
         <v>0.02</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Y5" s="1">
         <v>78.932000000000002</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Z5" s="11">
         <v>0.96609999999999996</v>
       </c>
-      <c r="Z5" s="12">
+      <c r="AA5" s="5">
         <v>1.86</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AB5" s="1">
         <v>1.69</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AC5" s="1">
         <v>3.0819999999999999</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AD5" s="3">
         <v>0.80489999999999995</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AE5" s="1">
         <v>9.9292999999999996</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AF5" s="1">
         <v>9.7043999999999997</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AG5" s="1">
         <v>0.15859999999999999</v>
       </c>
-      <c r="AG5" s="4">
+      <c r="AH5" s="1">
         <v>6.3E-2</v>
       </c>
-      <c r="AI5" s="1" t="e" vm="2">
+      <c r="AJ5" s="6" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="AJ5" s="1"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="AK5" s="6"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <f>1+A5</f>
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
         <v>18</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>15</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>1000</v>
       </c>
-      <c r="I6" s="9">
+      <c r="H6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6">
         <v>1333.8</v>
       </c>
-      <c r="K6" s="9">
+      <c r="L6">
         <v>4916</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="12">
+      <c r="O6" s="5">
         <v>8.6959999999999997</v>
       </c>
-      <c r="O6" s="4">
+      <c r="P6" s="1">
         <v>0.01</v>
       </c>
-      <c r="P6" s="4">
+      <c r="Q6" s="1">
         <v>15.563000000000001</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="R6" s="3">
         <v>0.98980000000000001</v>
       </c>
-      <c r="R6" s="12">
+      <c r="S6" s="5">
         <v>1.843</v>
       </c>
-      <c r="S6" s="4">
+      <c r="T6" s="1">
         <v>0.05</v>
       </c>
-      <c r="T6" s="4">
+      <c r="U6" s="1">
         <v>26.192</v>
       </c>
-      <c r="U6" s="5">
+      <c r="V6" s="3">
         <v>0.98609999999999998</v>
       </c>
-      <c r="V6" s="12">
+      <c r="W6" s="5">
         <v>0.51800000000000002</v>
       </c>
-      <c r="W6" s="4">
+      <c r="X6" s="1">
         <v>0.01</v>
       </c>
-      <c r="X6" s="4">
+      <c r="Y6" s="1">
         <v>13.715</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Z6" s="11">
         <v>0.99619999999999997</v>
       </c>
-      <c r="Z6" s="12">
+      <c r="AA6" s="5">
         <v>1.5049999999999999</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AB6" s="1">
         <v>0.44</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AC6" s="1">
         <v>2.3260000000000001</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AD6" s="3">
         <v>0.77190000000000003</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AE6" s="1">
         <v>1.8428</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AF6" s="1">
         <v>1.5849</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AG6" s="1">
         <v>0.2152</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AH6" s="1">
         <v>4.2700000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <f>1+A6</f>
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
         <v>18</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>15</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <f t="shared" ref="E7:E11" si="1" xml:space="preserve"> D7*C7</f>
         <v>270</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>20</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>1000</v>
       </c>
-      <c r="I7" s="9">
+      <c r="H7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7">
         <v>705.14</v>
       </c>
-      <c r="K7" s="9">
+      <c r="L7">
         <v>13082</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="3">
         <v>0.53869999999999996</v>
       </c>
-      <c r="N7" s="12">
+      <c r="O7" s="5">
         <v>19.081</v>
       </c>
-      <c r="O7" s="4">
+      <c r="P7" s="1">
         <v>0.03</v>
       </c>
-      <c r="P7" s="4">
+      <c r="Q7" s="1">
         <v>92.856999999999999</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="R7" s="3">
         <v>0.95150000000000001</v>
       </c>
-      <c r="R7" s="12">
+      <c r="S7" s="5">
         <v>62.768000000000001</v>
       </c>
-      <c r="S7" s="4">
+      <c r="T7" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="T7" s="4">
+      <c r="U7" s="1">
         <v>147.28</v>
       </c>
-      <c r="U7" s="5">
+      <c r="V7" s="3">
         <v>0.79859999999999998</v>
       </c>
-      <c r="V7" s="12">
+      <c r="W7" s="5">
         <v>17.169</v>
       </c>
-      <c r="W7" s="4">
+      <c r="X7" s="1">
         <v>0.03</v>
       </c>
-      <c r="X7" s="4">
+      <c r="Y7" s="1">
         <v>89.385000000000005</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Z7" s="11">
         <v>0.96079999999999999</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="AA7" s="5">
         <v>1.413</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AB7" s="1">
         <v>0.79</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AC7" s="1">
         <v>1.6259999999999999</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AD7" s="3">
         <v>0.71189999999999998</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AE7" s="1">
         <v>9.2194000000000003</v>
       </c>
-      <c r="AE7" s="4">
+      <c r="AF7" s="1">
         <v>8.7283000000000008</v>
       </c>
-      <c r="AF7" s="4">
+      <c r="AG7" s="1">
         <v>0.41549999999999998</v>
       </c>
-      <c r="AG7" s="4">
+      <c r="AH7" s="1">
         <v>8.3699999999999997E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="AJ7" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <f>1+A7</f>
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
         <v>18</v>
       </c>
-      <c r="D8" s="4">
-        <v>30</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="1">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="1"/>
         <v>540</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>5</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>1000</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="12"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="12"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="12"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="12"/>
-      <c r="AC8" s="5"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="H8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8">
+        <v>666.16</v>
+      </c>
+      <c r="L8">
+        <v>5222</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.42009999999999997</v>
+      </c>
+      <c r="O8" s="5">
+        <v>6.0679999999999996</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>49.238999999999997</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="S8" s="5">
+        <v>25.398</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="U8" s="1">
+        <v>99.397000000000006</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>16.547999999999998</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>0.626</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>97.22</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>3.9195000000000002</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>3.0278</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AJ8" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <f>1+A8</f>
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
         <v>18</v>
       </c>
-      <c r="D9" s="4">
-        <v>30</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="1">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="1"/>
         <v>540</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <v>20</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="1">
         <v>1000</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="12"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="12"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="12"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="12"/>
-      <c r="AC9" s="5"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <f t="shared" ref="A10:A11" si="2">1+A9</f>
+      <c r="H9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <v>594.79</v>
+      </c>
+      <c r="L9">
+        <v>10474</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.52590000000000003</v>
+      </c>
+      <c r="O9" s="5">
+        <v>2.5990000000000002</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>34.106999999999999</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.98380000000000001</v>
+      </c>
+      <c r="S9" s="5">
+        <v>26.956</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="U9" s="1">
+        <v>109.926</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0.871</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>10.912000000000001</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>1.7450000000000001</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0.71109999999999995</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>8.8048000000000002</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>7.9995000000000003</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0.72970000000000002</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="AJ9" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" ref="A10:A32" si="2">1+A9</f>
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
         <v>18</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>50</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <v>5</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="1">
         <v>1000</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="12"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="12"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="12"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="12"/>
-      <c r="AC10" s="5"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="H10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10">
+        <v>440</v>
+      </c>
+      <c r="L10">
+        <v>8860</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.52580000000000005</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>7.3959999999999999</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="S10" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U10" s="1">
+        <v>10.558</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0.95630000000000004</v>
+      </c>
+      <c r="W10" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>6.6349999999999998</v>
+      </c>
+      <c r="Z10" s="11">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>10.0661</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>8.4074000000000009</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>1.611</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="AJ10" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
         <v>18</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>50</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>20</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="1">
         <v>1000</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="12"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="12"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="12"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="12"/>
-      <c r="AC11" s="5"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="H11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11">
+        <v>685.9</v>
+      </c>
+      <c r="L11">
+        <v>12420</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.48220000000000002</v>
+      </c>
+      <c r="O11" s="5">
+        <v>5.2389999999999999</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>46.487000000000002</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0.96730000000000005</v>
+      </c>
+      <c r="S11" s="5">
+        <v>31.451000000000001</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="U11" s="1">
+        <v>114.63</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0.85829999999999995</v>
+      </c>
+      <c r="W11" s="5">
+        <v>1.097</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>17.423999999999999</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>1.387</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>7.7610000000000001</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>1.2346999999999999</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="AJ11" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ref="E12" si="3" xml:space="preserve"> D12*C12</f>
+        <v>900</v>
+      </c>
+      <c r="F12" s="1">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12">
+        <v>688.38900000000001</v>
+      </c>
+      <c r="L12">
+        <v>12184</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.46689999999999998</v>
+      </c>
+      <c r="O12" s="5">
+        <v>6.7930000000000001</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>50.526000000000003</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0.96189999999999998</v>
+      </c>
+      <c r="S12" s="5">
+        <v>36.012</v>
+      </c>
+      <c r="T12" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U12" s="1">
+        <v>120.91800000000001</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0.8609</v>
+      </c>
+      <c r="W12" s="5">
+        <v>2.8940000000000001</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>28.529</v>
+      </c>
+      <c r="Z12" s="11">
+        <v>0.97619999999999996</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>1.214</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>1.728</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0.8649</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>8.8496000000000006</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>7.7514000000000003</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>1.0044999999999999</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="AJ12" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ref="E13" si="4" xml:space="preserve"> D13*C13</f>
+        <v>900</v>
+      </c>
+      <c r="F13" s="1">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13">
+        <v>748.63</v>
+      </c>
+      <c r="L13">
+        <v>12098</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.46879999999999999</v>
+      </c>
+      <c r="O13" s="5">
+        <v>6.5209999999999999</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>47.959000000000003</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.96209999999999996</v>
+      </c>
+      <c r="S13" s="5">
+        <v>42.654000000000003</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="U13" s="1">
+        <v>121.774</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0.81130000000000002</v>
+      </c>
+      <c r="W13" s="5">
+        <v>1.448</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>18.527999999999999</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>3.6219999999999999</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>5.66</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0.55769999999999997</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>8.0800999999999998</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>7.0194999999999999</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="AJ13" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" ref="E14" si="5" xml:space="preserve"> D14*C14</f>
+        <v>900</v>
+      </c>
+      <c r="F14" s="1">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14">
+        <v>811.1</v>
+      </c>
+      <c r="L14">
+        <v>14290</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.49370000000000003</v>
+      </c>
+      <c r="O14" s="5">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>43.331000000000003</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="S14" s="5">
+        <v>35.622999999999998</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="U14" s="1">
+        <v>120.539</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0.85860000000000003</v>
+      </c>
+      <c r="W14" s="5">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>19.37</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>0.9889</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>1.5529999999999999</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0.745</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>2.036</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>8.8092000000000006</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>7.8784000000000001</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0.87170000000000003</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="AJ14" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ref="E15" si="6" xml:space="preserve"> D15*C15</f>
+        <v>900</v>
+      </c>
+      <c r="F15" s="1">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15">
+        <v>637.21</v>
+      </c>
+      <c r="L15">
+        <v>11600</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.53029999999999999</v>
+      </c>
+      <c r="O15" s="5">
+        <v>3.37</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>36.954999999999998</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="S15" s="5">
+        <v>21.295999999999999</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="U15" s="1">
+        <v>97.634</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="W15" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>15.805</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>2.335</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0.68089999999999995</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>7.9737999999999998</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>1.0546</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="AJ15" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="N16" s="3"/>
+      <c r="O16" s="5"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="5"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="5"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="5"/>
+      <c r="AD16" s="2"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f>1+A11</f>
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1">
         <v>90</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D17" s="1">
         <v>5</v>
       </c>
-      <c r="E12" s="4">
-        <f xml:space="preserve"> D12*C12</f>
+      <c r="E17" s="1">
+        <f xml:space="preserve"> D17*C17</f>
         <v>450</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F17" s="1">
         <v>5</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G17" s="1">
         <v>1000</v>
       </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="12"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="12"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="12"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="12"/>
-      <c r="AC12" s="5"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <f>1+A12</f>
-        <v>2</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="J17">
+        <v>222.1</v>
+      </c>
+      <c r="L17">
+        <v>442</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.2923</v>
+      </c>
+      <c r="O17" s="5">
+        <v>1.1625000000000001</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>7.5579999999999998</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="S17" s="5">
+        <v>2.7429999999999999</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="U17" s="1">
+        <v>9.0329999999999995</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="W17" s="5">
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>6.8869999999999996</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>0.95040000000000002</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>1.252</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>1.264</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0.995</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>0.63480000000000003</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>0.31969999999999998</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="AJ17" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1">
         <v>90</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E13" s="4">
-        <f t="shared" ref="E13:E19" si="3" xml:space="preserve"> D13*C13</f>
+      <c r="E18" s="1">
+        <f t="shared" ref="E18:E24" si="7" xml:space="preserve"> D18*C18</f>
         <v>450</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F18" s="1">
         <v>20</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G18" s="1">
         <v>1000</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="12"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="12"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="12"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="12"/>
-      <c r="AC13" s="5"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <f>1+A13</f>
-        <v>3</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="N18" s="3"/>
+      <c r="O18" s="5"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="5"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="5"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="5"/>
+      <c r="AD18" s="2"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1">
         <v>90</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D19" s="1">
         <v>15</v>
       </c>
-      <c r="E14" s="4">
-        <f t="shared" si="3"/>
+      <c r="E19" s="1">
+        <f t="shared" si="7"/>
         <v>1350</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F19" s="1">
         <v>5</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G19" s="1">
         <v>1000</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="12"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="12"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="12"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="12"/>
-      <c r="AC14" s="5"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <f>1+A14</f>
-        <v>4</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="N19" s="2"/>
+      <c r="O19" s="5"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="5"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="5"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="5"/>
+      <c r="AD19" s="2"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="5">
         <v>90</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D20" s="5">
         <v>15</v>
       </c>
-      <c r="E15" s="4">
-        <f t="shared" si="3"/>
+      <c r="E20" s="5">
+        <f t="shared" si="7"/>
         <v>1350</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F20" s="5">
         <v>20</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G20" s="5">
         <v>1000</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="12"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="12"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="12"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="12"/>
-      <c r="AC15" s="5"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <f>1+A15</f>
+      <c r="N20" s="2"/>
+      <c r="O20" s="5"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="5"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="5"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="5"/>
+      <c r="AD20" s="2"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1">
+        <v>90</v>
+      </c>
+      <c r="D21" s="1">
+        <v>30</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="7"/>
+        <v>2700</v>
+      </c>
+      <c r="F21" s="1">
         <v>5</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="G21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="5"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="5"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="5"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="5"/>
+      <c r="AD21" s="2"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1">
         <v>90</v>
       </c>
-      <c r="D16" s="4">
-        <v>30</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="3"/>
+      <c r="D22" s="1">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="7"/>
         <v>2700</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F22" s="1">
+        <v>20</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="5"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="5"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="5"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="5"/>
+      <c r="AD22" s="2"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1">
+        <v>90</v>
+      </c>
+      <c r="D23" s="1">
+        <v>50</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="7"/>
+        <v>4500</v>
+      </c>
+      <c r="F23" s="1">
         <v>5</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G23" s="1">
         <v>1000</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="12"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="12"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="12"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="12"/>
-      <c r="AC16" s="5"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <f>1+A16</f>
-        <v>6</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="N23" s="2"/>
+      <c r="O23" s="5"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="5"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="5"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="5"/>
+      <c r="AD23" s="2"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1">
         <v>90</v>
       </c>
-      <c r="D17" s="4">
-        <v>30</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="3"/>
-        <v>2700</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="D24" s="1">
+        <v>50</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="7"/>
+        <v>4500</v>
+      </c>
+      <c r="F24" s="1">
         <v>20</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G24" s="1">
         <v>1000</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="12"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="12"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="12"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="12"/>
-      <c r="AC17" s="5"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <f t="shared" ref="A18:A19" si="4">1+A17</f>
-        <v>7</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="4">
-        <v>90</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="N24" s="2"/>
+      <c r="O24" s="5"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="5"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="5"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="5"/>
+      <c r="AD24" s="2"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1">
+        <v>160</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
+        <f xml:space="preserve"> D25*C25</f>
+        <v>800</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="5"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="5"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="5"/>
+      <c r="AA25" s="5"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1">
+        <v>160</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" ref="E26:E32" si="8" xml:space="preserve"> D26*C26</f>
+        <v>800</v>
+      </c>
+      <c r="F26" s="1">
+        <v>20</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="5"/>
+      <c r="AA26" s="5"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1">
+        <v>160</v>
+      </c>
+      <c r="D27" s="1">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="8"/>
+        <v>2400</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="AA27" s="5"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="5">
+        <v>160</v>
+      </c>
+      <c r="D28" s="5">
+        <v>15</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="8"/>
+        <v>2400</v>
+      </c>
+      <c r="F28" s="5">
+        <v>20</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="AA28" s="5"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1">
+        <v>160</v>
+      </c>
+      <c r="D29" s="1">
+        <v>30</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="8"/>
+        <v>4800</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="AA29" s="5"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1">
+        <v>160</v>
+      </c>
+      <c r="D30" s="1">
+        <v>30</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="8"/>
+        <v>4800</v>
+      </c>
+      <c r="F30" s="1">
+        <v>20</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="AA30" s="5"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>160</v>
+      </c>
+      <c r="D31" s="1">
         <v>50</v>
       </c>
-      <c r="E18" s="4">
-        <f t="shared" si="3"/>
-        <v>4500</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="E31" s="1">
+        <f t="shared" si="8"/>
+        <v>8000</v>
+      </c>
+      <c r="F31" s="1">
         <v>5</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G31" s="1">
         <v>1000</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="12"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="12"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="12"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="12"/>
-      <c r="AC18" s="5"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="4">
-        <v>90</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="N31" s="2"/>
+      <c r="O31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="AA31" s="5"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1">
+        <v>160</v>
+      </c>
+      <c r="D32" s="1">
         <v>50</v>
       </c>
-      <c r="E19" s="4">
-        <f t="shared" si="3"/>
-        <v>4500</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="E32" s="1">
+        <f t="shared" si="8"/>
+        <v>8000</v>
+      </c>
+      <c r="F32" s="1">
         <v>20</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G32" s="1">
         <v>1000</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="12"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="12"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="12"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="12"/>
-      <c r="AC19" s="5"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="4">
-        <v>160</v>
-      </c>
-      <c r="D20" s="4">
-        <v>5</v>
-      </c>
-      <c r="E20" s="4">
-        <f xml:space="preserve"> D20*C20</f>
-        <v>800</v>
-      </c>
-      <c r="F20" s="4">
-        <v>5</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1000</v>
-      </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="12"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="12"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="12"/>
-      <c r="Z20" s="12"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <f>1+A20</f>
-        <v>2</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="4">
-        <v>160</v>
-      </c>
-      <c r="D21" s="4">
-        <v>5</v>
-      </c>
-      <c r="E21" s="4">
-        <f t="shared" ref="E21:E27" si="5" xml:space="preserve"> D21*C21</f>
-        <v>800</v>
-      </c>
-      <c r="F21" s="4">
-        <v>20</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1000</v>
-      </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="12"/>
-      <c r="Z21" s="12"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <f>1+A21</f>
-        <v>3</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="4">
-        <v>160</v>
-      </c>
-      <c r="D22" s="4">
-        <v>15</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" si="5"/>
-        <v>2400</v>
-      </c>
-      <c r="F22" s="4">
-        <v>5</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1000</v>
-      </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="Z22" s="12"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <f>1+A22</f>
-        <v>4</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="4">
-        <v>160</v>
-      </c>
-      <c r="D23" s="4">
-        <v>15</v>
-      </c>
-      <c r="E23" s="4">
-        <f t="shared" si="5"/>
-        <v>2400</v>
-      </c>
-      <c r="F23" s="4">
-        <v>20</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1000</v>
-      </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="Z23" s="12"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <f>1+A23</f>
-        <v>5</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="4">
-        <v>160</v>
-      </c>
-      <c r="D24" s="4">
-        <v>30</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" si="5"/>
-        <v>4800</v>
-      </c>
-      <c r="F24" s="4">
-        <v>5</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1000</v>
-      </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="Z24" s="12"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <f>1+A24</f>
-        <v>6</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="4">
-        <v>160</v>
-      </c>
-      <c r="D25" s="4">
-        <v>30</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" si="5"/>
-        <v>4800</v>
-      </c>
-      <c r="F25" s="4">
-        <v>20</v>
-      </c>
-      <c r="G25" s="4">
-        <v>1000</v>
-      </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="Z25" s="12"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <f t="shared" ref="A26:A27" si="6">1+A25</f>
-        <v>7</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="4">
-        <v>160</v>
-      </c>
-      <c r="D26" s="4">
-        <v>50</v>
-      </c>
-      <c r="E26" s="4">
-        <f t="shared" si="5"/>
-        <v>8000</v>
-      </c>
-      <c r="F26" s="4">
-        <v>5</v>
-      </c>
-      <c r="G26" s="4">
-        <v>1000</v>
-      </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="Z26" s="12"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="4">
-        <v>160</v>
-      </c>
-      <c r="D27" s="4">
-        <v>50</v>
-      </c>
-      <c r="E27" s="4">
-        <f t="shared" si="5"/>
-        <v>8000</v>
-      </c>
-      <c r="F27" s="4">
-        <v>20</v>
-      </c>
-      <c r="G27" s="4">
-        <v>1000</v>
-      </c>
-      <c r="M27" s="5"/>
-      <c r="N27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="Z27" s="12"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M32" s="5"/>
-    </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M33" s="5"/>
-    </row>
-    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M34" s="5"/>
-    </row>
-    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M36" s="5"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="AA32" s="5"/>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N41" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AJ1:AJ3"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="N2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="O2:AD2"/>
+    <mergeCell ref="AE2:AH2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/performance evaluation/performance test cases.xlsx
+++ b/performance evaluation/performance test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucco\Documents\GitHub\5LIC0\performance evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FAE3D2-8AE7-4DC6-8963-BB44B56D63DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D836C943-A675-4511-9381-6FE6F3088C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{3A2C6128-5C33-4779-88E9-C18955B2281D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="12">
+  <futureMetadata name="XLRICHVALUE" count="14">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -125,8 +125,22 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="12">
+  <valueMetadata count="14">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -162,6 +176,12 @@
     </bk>
     <bk>
       <rc t="1" v="11"/>
+    </bk>
+    <bk>
+      <rc t="1" v="12"/>
+    </bk>
+    <bk>
+      <rc t="1" v="13"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -388,13 +408,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,9 +425,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +484,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="12">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="14">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -515,6 +533,14 @@
     <v>11</v>
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>12</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>13</v>
+    <v>5</v>
+  </rv>
 </rvData>
 </file>
 
@@ -541,6 +567,8 @@
   <rel r:id="rId10"/>
   <rel r:id="rId11"/>
   <rel r:id="rId12"/>
+  <rel r:id="rId13"/>
+  <rel r:id="rId14"/>
 </richValueRels>
 </file>
 
@@ -863,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCF0C3D-3D26-4320-B15C-D27C51D49D32}">
   <dimension ref="A1:AK41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +904,7 @@
     <col min="5" max="5" width="20.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="18.140625" customWidth="1"/>
     <col min="12" max="12" width="31" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="1"/>
@@ -903,44 +931,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AJ1" s="7" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="O2" s="8" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AJ2" s="7"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AJ2" s="8"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1040,7 +1068,7 @@
       <c r="AH3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AJ3" s="7"/>
+      <c r="AJ3" s="8"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1066,7 +1094,7 @@
       <c r="G4" s="1">
         <v>1000</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" t="s">
         <v>38</v>
       </c>
       <c r="J4">
@@ -1114,7 +1142,7 @@
       <c r="Y4" s="1">
         <v>50.02</v>
       </c>
-      <c r="Z4" s="11">
+      <c r="Z4" s="6">
         <v>0.97299999999999998</v>
       </c>
       <c r="AA4" s="5">
@@ -1169,7 +1197,7 @@
       <c r="G5" s="1">
         <v>1000</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" t="s">
         <v>38</v>
       </c>
       <c r="J5">
@@ -1214,7 +1242,7 @@
       <c r="Y5" s="1">
         <v>78.932000000000002</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="6">
         <v>0.96609999999999996</v>
       </c>
       <c r="AA5" s="5">
@@ -1241,10 +1269,10 @@
       <c r="AH5" s="1">
         <v>6.3E-2</v>
       </c>
-      <c r="AJ5" s="6" t="e" vm="2">
+      <c r="AJ5" s="7" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="AK5" s="6"/>
+      <c r="AK5" s="7"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1270,7 +1298,7 @@
       <c r="G6" s="1">
         <v>1000</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" t="s">
         <v>38</v>
       </c>
       <c r="J6">
@@ -1315,7 +1343,7 @@
       <c r="Y6" s="1">
         <v>13.715</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Z6" s="6">
         <v>0.99619999999999997</v>
       </c>
       <c r="AA6" s="5">
@@ -1367,7 +1395,7 @@
       <c r="G7" s="1">
         <v>1000</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" t="s">
         <v>38</v>
       </c>
       <c r="J7">
@@ -1412,7 +1440,7 @@
       <c r="Y7" s="1">
         <v>89.385000000000005</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Z7" s="6">
         <v>0.96079999999999999</v>
       </c>
       <c r="AA7" s="5">
@@ -1467,7 +1495,7 @@
       <c r="G8" s="1">
         <v>1000</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" t="s">
         <v>38</v>
       </c>
       <c r="J8">
@@ -1512,7 +1540,7 @@
       <c r="Y8" s="1">
         <v>16.547999999999998</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="Z8" s="6">
         <v>0.98760000000000003</v>
       </c>
       <c r="AA8" s="5">
@@ -1528,13 +1556,13 @@
         <v>0.97219999999999995</v>
       </c>
       <c r="AE8" s="1">
-        <v>97.22</v>
+        <v>3.9195000000000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>3.9195000000000002</v>
+        <v>3.0278</v>
       </c>
       <c r="AG8" s="1">
-        <v>3.0278</v>
+        <v>0.83760000000000001</v>
       </c>
       <c r="AH8" s="1">
         <v>5.3999999999999999E-2</v>
@@ -1567,7 +1595,7 @@
       <c r="G9" s="1">
         <v>1000</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" t="s">
         <v>38</v>
       </c>
       <c r="J9">
@@ -1612,7 +1640,7 @@
       <c r="Y9" s="1">
         <v>10.912000000000001</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="Z9" s="6">
         <v>0.99660000000000004</v>
       </c>
       <c r="AA9" s="5">
@@ -1667,7 +1695,7 @@
       <c r="G10" s="1">
         <v>1000</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" t="s">
         <v>38</v>
       </c>
       <c r="J10">
@@ -1712,7 +1740,7 @@
       <c r="Y10" s="1">
         <v>6.6349999999999998</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z10" s="6">
         <v>0.99160000000000004</v>
       </c>
       <c r="AA10" s="5">
@@ -1767,7 +1795,7 @@
       <c r="G11" s="1">
         <v>1000</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" t="s">
         <v>38</v>
       </c>
       <c r="J11">
@@ -1812,7 +1840,7 @@
       <c r="Y11" s="1">
         <v>17.423999999999999</v>
       </c>
-      <c r="Z11" s="11">
+      <c r="Z11" s="6">
         <v>0.98629999999999995</v>
       </c>
       <c r="AA11" s="5">
@@ -1866,7 +1894,7 @@
       <c r="G12" s="1">
         <v>1000</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" t="s">
         <v>40</v>
       </c>
       <c r="J12">
@@ -1911,7 +1939,7 @@
       <c r="Y12" s="1">
         <v>28.529</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="Z12" s="6">
         <v>0.97619999999999996</v>
       </c>
       <c r="AA12" s="5">
@@ -1965,7 +1993,7 @@
       <c r="G13" s="1">
         <v>1000</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" t="s">
         <v>42</v>
       </c>
       <c r="J13">
@@ -2010,7 +2038,7 @@
       <c r="Y13" s="1">
         <v>18.527999999999999</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="Z13" s="6">
         <v>0.98740000000000006</v>
       </c>
       <c r="AA13" s="5">
@@ -2064,7 +2092,7 @@
       <c r="G14" s="1">
         <v>1000</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" t="s">
         <v>44</v>
       </c>
       <c r="J14">
@@ -2109,7 +2137,7 @@
       <c r="Y14" s="1">
         <v>19.37</v>
       </c>
-      <c r="Z14" s="11">
+      <c r="Z14" s="6">
         <v>0.9889</v>
       </c>
       <c r="AA14" s="5">
@@ -2163,7 +2191,7 @@
       <c r="G15" s="1">
         <v>1000</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" t="s">
         <v>46</v>
       </c>
       <c r="J15">
@@ -2439,15 +2467,78 @@
       <c r="G20" s="5">
         <v>1000</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="5"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="5"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="5"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="5"/>
-      <c r="AD20" s="2"/>
+      <c r="J20">
+        <v>602</v>
+      </c>
+      <c r="L20">
+        <v>2964</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.41389999999999999</v>
+      </c>
+      <c r="O20" s="5">
+        <v>1.264</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>15.492000000000001</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0.96360000000000001</v>
+      </c>
+      <c r="S20" s="5">
+        <v>86.19</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="U20" s="1">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0.8619</v>
+      </c>
+      <c r="W20" s="5">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="X20" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>1.167</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>1.609</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>1.903</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0.71189999999999998</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>2.4588000000000001</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>1.9976</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="AJ20" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -2702,11 +2793,78 @@
       <c r="G28" s="5">
         <v>1000</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="AA28" s="5"/>
+      <c r="J28">
+        <v>616.15</v>
+      </c>
+      <c r="L28">
+        <v>2332</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.28270000000000001</v>
+      </c>
+      <c r="O28" s="5">
+        <v>6.1529999999999996</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>37.957999999999998</v>
+      </c>
+      <c r="R28" s="1">
+        <v>90.74</v>
+      </c>
+      <c r="S28" s="5">
+        <v>8.641</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="U28" s="1">
+        <v>32.439</v>
+      </c>
+      <c r="V28" s="1">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="W28" s="5">
+        <v>5.49</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>40.424999999999997</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>96.09</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>2.4510000000000001</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>2.726</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>58.97</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>1.8924000000000001</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>1.3697999999999999</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>0.45929999999999999</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="AJ28" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="1">

--- a/performance evaluation/performance test cases.xlsx
+++ b/performance evaluation/performance test cases.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucco\Documents\GitHub\5LIC0\performance evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D836C943-A675-4511-9381-6FE6F3088C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2D6A62-4725-45F6-8CCC-5DC93AEA21DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{3A2C6128-5C33-4779-88E9-C18955B2281D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3A2C6128-5C33-4779-88E9-C18955B2281D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="14">
+  <futureMetadata name="XLRICHVALUE" count="16">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -139,8 +140,22 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="14">
+  <valueMetadata count="16">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -183,12 +198,18 @@
     <bk>
       <rc t="1" v="13"/>
     </bk>
+    <bk>
+      <rc t="1" v="14"/>
+    </bk>
+    <bk>
+      <rc t="1" v="15"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
     <t>Test case</t>
   </si>
@@ -310,25 +331,16 @@
     <t>8d1</t>
   </si>
   <si>
-    <t>One disturber in corner opposite to server 'eg wifi?)</t>
-  </si>
-  <si>
     <t>8d2</t>
-  </si>
-  <si>
-    <t>two disturbers in corner (eg wifi?)</t>
   </si>
   <si>
     <t>8d4</t>
   </si>
   <si>
-    <t>two disturbers in corner + 2 in aisles</t>
-  </si>
-  <si>
     <t>8d20</t>
   </si>
   <si>
-    <t>two disturbers in corner + 18 randmy positionne din aisle</t>
+    <t>9a</t>
   </si>
 </sst>
 </file>
@@ -408,7 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -425,6 +437,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,6 +456,5077 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Median</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> scan latency  and %&lt;2s for test case vs disturber count</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14853003970496534"/>
+          <c:y val="2.149445181967264E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1201848457394883"/>
+          <c:y val="0.13532965132381114"/>
+          <c:w val="0.59837351457727961"/>
+          <c:h val="0.70294865297519926"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Median Scan latency</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$11:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$11:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFBB-4C56-9E73-8AD21B3E44E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1043013216"/>
+        <c:axId val="1043015136"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Fraction of scans with latency &lt;2s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$11:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$12:$Z$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.97619999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98740000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9889</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0%">
+                  <c:v>0.99370000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DFBB-4C56-9E73-8AD21B3E44E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1038794192"/>
+        <c:axId val="1038795152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1043013216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Disrurber</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> count</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1043015136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1043015136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.5000000000000003E-2"/>
+          <c:min val="2.5000000000000005E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>E-E</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> delay (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1043013216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1038795152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.95000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Fraction of scans with latency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> &lt;2s</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.8346791995952676"/>
+              <c:y val="0.12205515339464341"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1038794192"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1038794192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1038795152"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8094660364229872"/>
+          <c:y val="0.56414237744314089"/>
+          <c:w val="0.17779683713891895"/>
+          <c:h val="0.41954229250618574"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Impact of nodes per shelf on e2e</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> scan latency and throughput (18 shelves)</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12339965847935064"/>
+          <c:y val="0.20435640529739643"/>
+          <c:w val="0.61623582848974467"/>
+          <c:h val="0.62846471491092604"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Median scan latency</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA73-4099-8C2E-158520EB96FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1311692128"/>
+        <c:axId val="1311695008"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Scan throughput</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$1:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.7043999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7283000000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9995000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4074000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA73-4099-8C2E-158520EB96FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1311711440"/>
+        <c:axId val="1311709520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1311692128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Tags  per shelf</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1311695008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1311695008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>MEdian</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> scan latency (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1311692128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1311709520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Throughput (TX/sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1311711440"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1311711440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1311709520"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81822639401713204"/>
+          <c:y val="0.40840126542579225"/>
+          <c:w val="0.17721560061931091"/>
+          <c:h val="0.26308430311295694"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Shelf</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> count vs median scan latency and scan throughput (50 tags/shelf)</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13213561574252725"/>
+          <c:y val="0.21661166005789861"/>
+          <c:w val="0.59604809818332971"/>
+          <c:h val="0.60618374180095125"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Median Scan latency</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$26:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$X$26:$X$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B46B-4739-95F6-FF6A5F052ABD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1266797920"/>
+        <c:axId val="1266799360"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Scan throughput vs shelf count</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$26:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AF$26:$AF$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.7283000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7635000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9976</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3697999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B46B-4739-95F6-FF6A5F052ABD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1230120096"/>
+        <c:axId val="1230123456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1266797920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>shelf count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1266799360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1266799360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Median</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> scan latency (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1266797920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1230123456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Scan Throughput (TX/sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1230120096"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1230120096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1230123456"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81021469606249297"/>
+          <c:y val="0.3234473592420547"/>
+          <c:w val="0.16643738520223619"/>
+          <c:h val="0.50974693602066112"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Impact of shelf count on Packet Delivery</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> Ratio (15 tags per shelf)</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$26:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$N$26:$N$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.53869999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4123</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0%">
+                  <c:v>0.41389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0%">
+                  <c:v>0.28270000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C63E-4A86-9111-E378378D4935}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1317480688"/>
+        <c:axId val="1317483088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1317480688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Shelf</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> count</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1317483088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1317483088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>PDR </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1317480688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1279071</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>179613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>353785</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE68244A-B7BA-7C61-1099-D4DA1735A7CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA76CCD9-4664-3B30-0DB2-373A57181957}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>132668</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>61232</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1361</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C374C97-01B2-110B-7D69-DAF702A2979E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>326569</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>612319</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>92528</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90AD43E3-1971-60FF-7ACD-648F427B47BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,7 +5570,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="14">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="16">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -541,6 +5627,14 @@
     <v>13</v>
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>14</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>15</v>
+    <v>5</v>
+  </rv>
 </rvData>
 </file>
 
@@ -569,6 +5663,8 @@
   <rel r:id="rId12"/>
   <rel r:id="rId13"/>
   <rel r:id="rId14"/>
+  <rel r:id="rId15"/>
+  <rel r:id="rId16"/>
 </richValueRels>
 </file>
 
@@ -891,8 +5987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCF0C3D-3D26-4320-B15C-D27C51D49D32}">
   <dimension ref="A1:AK41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AH16" sqref="A16:AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,8 +6891,8 @@
       <c r="G11" s="1">
         <v>1000</v>
       </c>
-      <c r="H11" t="s">
-        <v>38</v>
+      <c r="H11">
+        <v>0</v>
       </c>
       <c r="J11">
         <v>685.9</v>
@@ -1894,8 +6990,8 @@
       <c r="G12" s="1">
         <v>1000</v>
       </c>
-      <c r="H12" t="s">
-        <v>40</v>
+      <c r="H12">
+        <v>1</v>
       </c>
       <c r="J12">
         <v>688.38900000000001</v>
@@ -1972,7 +7068,7 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>30</v>
@@ -1993,8 +7089,8 @@
       <c r="G13" s="1">
         <v>1000</v>
       </c>
-      <c r="H13" t="s">
-        <v>42</v>
+      <c r="H13">
+        <v>2</v>
       </c>
       <c r="J13">
         <v>748.63</v>
@@ -2071,7 +7167,7 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>30</v>
@@ -2092,8 +7188,8 @@
       <c r="G14" s="1">
         <v>1000</v>
       </c>
-      <c r="H14" t="s">
-        <v>44</v>
+      <c r="H14">
+        <v>4</v>
       </c>
       <c r="J14">
         <v>811.1</v>
@@ -2170,7 +7266,7 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>30</v>
@@ -2182,7 +7278,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ref="E15" si="6" xml:space="preserve"> D15*C15</f>
+        <f t="shared" ref="E15:E16" si="6" xml:space="preserve"> D15*C15</f>
         <v>900</v>
       </c>
       <c r="F15" s="1">
@@ -2191,8 +7287,8 @@
       <c r="G15" s="1">
         <v>1000</v>
       </c>
-      <c r="H15" t="s">
-        <v>46</v>
+      <c r="H15">
+        <v>20</v>
       </c>
       <c r="J15">
         <v>637.21</v>
@@ -2268,110 +7364,195 @@
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="N16" s="3"/>
-      <c r="O16" s="5"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="5"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="5"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="5"/>
-      <c r="AD16" s="2"/>
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="6"/>
+        <v>720</v>
+      </c>
+      <c r="F16" s="1">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J16">
+        <v>581.38</v>
+      </c>
+      <c r="L16">
+        <v>5232</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.4123</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>6.1980000000000004</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0.9637</v>
+      </c>
+      <c r="S16" s="5">
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="U16" s="1">
+        <v>11.194000000000001</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0.873</v>
+      </c>
+      <c r="W16" s="5">
+        <v>98.81</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>4.7469999999999999</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>4.6669999999999998</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>6.931</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>4.4996</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>3.7635000000000001</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="AJ16" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <f>1+A11</f>
         <v>9</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="5">
         <v>90</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="5">
         <v>5</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="5">
         <f xml:space="preserve"> D17*C17</f>
         <v>450</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="5">
         <v>5</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="5">
         <v>1000</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="10">
         <v>222.1</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="10">
         <v>442</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="11">
         <v>0.2923</v>
       </c>
       <c r="O17" s="5">
         <v>1.1625000000000001</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="5">
         <v>0.05</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="5">
         <v>7.5579999999999998</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="12">
         <v>0.90500000000000003</v>
       </c>
       <c r="S17" s="5">
         <v>2.7429999999999999</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17" s="5">
         <v>0.1</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="5">
         <v>9.0329999999999995</v>
       </c>
-      <c r="V17" s="2">
+      <c r="V17" s="12">
         <v>0.84509999999999996</v>
       </c>
       <c r="W17" s="5">
         <v>1.0860000000000001</v>
       </c>
-      <c r="X17" s="1">
+      <c r="X17" s="5">
         <v>0.03</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Y17" s="5">
         <v>6.8869999999999996</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="Z17" s="12">
         <v>0.95040000000000002</v>
       </c>
       <c r="AA17" s="5">
         <v>1.252</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AB17" s="5">
         <v>1.03</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AC17" s="5">
         <v>1.264</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AD17" s="12">
         <v>0.66669999999999996</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AE17" s="5">
         <v>0.995</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AF17" s="5">
         <v>0.63480000000000003</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AG17" s="5">
         <v>0.31969999999999998</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AH17" s="5">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="AJ17" t="e" vm="12">
+      <c r="AJ17" s="10" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2536,7 +7717,7 @@
       <c r="AH20" s="1">
         <v>6.4699999999999994E-2</v>
       </c>
-      <c r="AJ20" t="e" vm="13">
+      <c r="AJ20" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2598,15 +7779,78 @@
       <c r="G22" s="1">
         <v>1000</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="5"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="5"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="5"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="5"/>
-      <c r="AD22" s="2"/>
+      <c r="J22">
+        <v>584.42999999999995</v>
+      </c>
+      <c r="L22">
+        <v>4240</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.3947</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>3.4340000000000002</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.9708</v>
+      </c>
+      <c r="S22" s="5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="U22" s="1">
+        <v>5.52</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0.94430000000000003</v>
+      </c>
+      <c r="W22" s="5">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>1.839</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>0.9909</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0.745</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>1.877</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>3.6274999999999999</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>2.44</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>1.1053999999999999</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="AJ22" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -2862,7 +8106,7 @@
       <c r="AH28" s="1">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="AJ28" t="e" vm="14">
+      <c r="AJ28" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3023,5 +8267,536 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D25F63A-C058-4D39-81FB-E6C54BECB898}">
+  <dimension ref="A1:AJ30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V41" sqref="V41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C1" s="1">
+        <v>78.932000000000002</v>
+      </c>
+      <c r="D1" s="6">
+        <v>0.96609999999999996</v>
+      </c>
+      <c r="E1" s="1">
+        <v>9.7043999999999997</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="C2" s="1">
+        <v>89.385000000000005</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8.7283000000000008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10.912000000000001</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7.9995000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.6349999999999998</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8.4074000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1">
+        <v>270</v>
+      </c>
+      <c r="F26" s="1">
+        <v>20</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26">
+        <v>705.14</v>
+      </c>
+      <c r="L26">
+        <v>13082</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.53869999999999996</v>
+      </c>
+      <c r="O26" s="5">
+        <v>19.081</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>92.856999999999999</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="S26" s="5">
+        <v>62.768000000000001</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="U26" s="1">
+        <v>147.28</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0.79859999999999998</v>
+      </c>
+      <c r="W26" s="5">
+        <v>17.169</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>89.385000000000005</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>1.413</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>1.6259999999999999</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0.71189999999999998</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>9.2194000000000003</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>8.7283000000000008</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>0.41549999999999998</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="AJ26" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1">
+        <v>48</v>
+      </c>
+      <c r="D27" s="1">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" ref="E27" si="0" xml:space="preserve"> D27*C27</f>
+        <v>720</v>
+      </c>
+      <c r="F27" s="1">
+        <v>20</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J27">
+        <v>581.38</v>
+      </c>
+      <c r="L27">
+        <v>5232</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.4123</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>6.1980000000000004</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0.9637</v>
+      </c>
+      <c r="S27" s="5">
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="U27" s="1">
+        <v>11.194000000000001</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0.873</v>
+      </c>
+      <c r="W27" s="5">
+        <v>98.81</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>4.7469999999999999</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>4.6669999999999998</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>6.931</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>4.4996</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>3.7635000000000001</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>12</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="5">
+        <v>90</v>
+      </c>
+      <c r="D28" s="5">
+        <v>15</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1350</v>
+      </c>
+      <c r="F28" s="5">
+        <v>20</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J28">
+        <v>602</v>
+      </c>
+      <c r="L28">
+        <v>2964</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.41389999999999999</v>
+      </c>
+      <c r="O28" s="5">
+        <v>1.264</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>15.492000000000001</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0.96360000000000001</v>
+      </c>
+      <c r="S28" s="5">
+        <v>86.19</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="U28" s="1">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0.8619</v>
+      </c>
+      <c r="W28" s="5">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="X28" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>1.167</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>1.609</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>1.903</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>0.71189999999999998</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>2.4588000000000001</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>1.9976</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="AJ28" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>20</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="5">
+        <v>160</v>
+      </c>
+      <c r="D29" s="5">
+        <v>15</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2400</v>
+      </c>
+      <c r="F29" s="5">
+        <v>20</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J29">
+        <v>616.15</v>
+      </c>
+      <c r="L29">
+        <v>2332</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.28270000000000001</v>
+      </c>
+      <c r="O29" s="5">
+        <v>6.1529999999999996</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>37.957999999999998</v>
+      </c>
+      <c r="R29" s="1">
+        <v>90.74</v>
+      </c>
+      <c r="S29" s="5">
+        <v>8.641</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="U29" s="1">
+        <v>32.439</v>
+      </c>
+      <c r="V29" s="1">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="W29" s="5">
+        <v>5.49</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>40.424999999999997</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>96.09</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>2.4510000000000001</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>2.726</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>58.97</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>1.8924000000000001</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>1.3697999999999999</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>0.45929999999999999</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="AJ29" t="e" vm="16">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/performance evaluation/performance test cases.xlsx
+++ b/performance evaluation/performance test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucco\Documents\GitHub\5LIC0\performance evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2D6A62-4725-45F6-8CCC-5DC93AEA21DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD31AE2-4700-4CA5-88CE-6EA4D51B36AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3A2C6128-5C33-4779-88E9-C18955B2281D}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{3A2C6128-5C33-4779-88E9-C18955B2281D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="16">
+  <futureMetadata name="XLRICHVALUE" count="20">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -154,8 +154,36 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="16"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="16">
+  <valueMetadata count="20">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -204,12 +232,24 @@
     <bk>
       <rc t="1" v="15"/>
     </bk>
+    <bk>
+      <rc t="1" v="16"/>
+    </bk>
+    <bk>
+      <rc t="1" v="17"/>
+    </bk>
+    <bk>
+      <rc t="1" v="18"/>
+    </bk>
+    <bk>
+      <rc t="1" v="19"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
   <si>
     <t>Test case</t>
   </si>
@@ -342,6 +382,24 @@
   <si>
     <t>9a</t>
   </si>
+  <si>
+    <t>4f50</t>
+  </si>
+  <si>
+    <t>Latency calc</t>
+  </si>
+  <si>
+    <t>Scan</t>
+  </si>
+  <si>
+    <t>4f30</t>
+  </si>
+  <si>
+    <t>4f80</t>
+  </si>
+  <si>
+    <t>4f150</t>
+  </si>
 </sst>
 </file>
 
@@ -420,7 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -428,6 +486,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,9 +498,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,7 +652,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$H$11:$H$15</c:f>
+              <c:f>Sheet1!$H$15:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -612,7 +676,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$11:$P$15</c:f>
+              <c:f>Sheet1!$P$15:$P$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -689,7 +753,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$H$11:$H$15</c:f>
+              <c:f>Sheet1!$H$15:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -713,7 +777,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Z$12:$Z$15</c:f>
+              <c:f>Sheet1!$Z$16:$Z$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1131,6 +1195,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1038795152"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1863,6 +1928,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1311709520"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2595,6 +2661,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1230123456"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2770,8 +2837,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2800,7 +2867,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>Sheet2!$C$26:$C$29</c:f>
               <c:numCache>
@@ -2820,8 +2887,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Sheet2!$N$26:$N$29</c:f>
               <c:numCache>
@@ -2841,7 +2908,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2857,10 +2924,107 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="1317480688"/>
         <c:axId val="1317483088"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>estimated latency</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$26:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AI$26:$AI$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>114.56984750753296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>265.71011026969575</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.60072086503806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>730.03358154475109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5586-410C-8F1E-6454F4097318}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1527276255"/>
+        <c:axId val="1650003535"/>
+      </c:lineChart>
+      <c:catAx>
         <c:axId val="1317480688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -2980,8 +3144,11 @@
         </c:txPr>
         <c:crossAx val="1317483088"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1317483088"/>
         <c:scaling>
@@ -3097,8 +3264,73 @@
         </c:txPr>
         <c:crossAx val="1317480688"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="1650003535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1527276255"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1527276255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1650003535"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5379,16 +5611,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1279071</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>179613</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>707572</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>63657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>353785</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>991547</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>183401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5570,7 +5802,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="16">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="20">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -5635,6 +5867,22 @@
     <v>15</v>
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>16</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>17</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>18</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>19</v>
+    <v>5</v>
+  </rv>
 </rvData>
 </file>
 
@@ -5665,6 +5913,10 @@
   <rel r:id="rId14"/>
   <rel r:id="rId15"/>
   <rel r:id="rId16"/>
+  <rel r:id="rId17"/>
+  <rel r:id="rId18"/>
+  <rel r:id="rId19"/>
+  <rel r:id="rId20"/>
 </richValueRels>
 </file>
 
@@ -5985,10 +6237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCF0C3D-3D26-4320-B15C-D27C51D49D32}">
-  <dimension ref="A1:AK41"/>
+  <dimension ref="A1:AL46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AH16" sqref="A16:AH16"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6023,50 +6275,54 @@
     <col min="32" max="32" width="13.140625" style="1" customWidth="1"/>
     <col min="33" max="33" width="9.140625" style="1"/>
     <col min="34" max="34" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.85546875" customWidth="1"/>
+    <col min="35" max="35" width="14.5703125" style="13" customWidth="1"/>
+    <col min="37" max="37" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AJ1" s="8" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK1" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="O2" s="9" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="O2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AJ2" s="8"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK2" s="11"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6164,9 +6420,12 @@
       <c r="AH3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AJ3" s="8"/>
+      <c r="AI3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK3" s="11"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>1</f>
         <v>1</v>
@@ -6265,11 +6524,15 @@
       <c r="AH4" s="1">
         <v>6.5500000000000003E-2</v>
       </c>
-      <c r="AJ4" t="e" vm="1">
+      <c r="AI4" s="13">
+        <f>1/AF4</f>
+        <v>0.3209242618741977</v>
+      </c>
+      <c r="AK4" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>1+A4</f>
         <v>2</v>
@@ -6365,12 +6628,16 @@
       <c r="AH5" s="1">
         <v>6.3E-2</v>
       </c>
-      <c r="AJ5" s="7" t="e" vm="2">
+      <c r="AI5" s="13">
+        <f t="shared" ref="AI5:AI33" si="1">1/AF5</f>
+        <v>0.1030460409711059</v>
+      </c>
+      <c r="AK5" s="10" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="AK5" s="7"/>
+      <c r="AL5" s="10"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>1+A5</f>
         <v>3</v>
@@ -6466,8 +6733,12 @@
       <c r="AH6" s="1">
         <v>4.2700000000000002E-2</v>
       </c>
+      <c r="AI6" s="13">
+        <f t="shared" si="1"/>
+        <v>0.63095463436178945</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>1+A6</f>
         <v>4</v>
@@ -6482,7 +6753,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E11" si="1" xml:space="preserve"> D7*C7</f>
+        <f t="shared" ref="E7:E15" si="2" xml:space="preserve"> D7*C7</f>
         <v>270</v>
       </c>
       <c r="F7" s="1">
@@ -6563,414 +6834,431 @@
       <c r="AH7" s="1">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="AJ7" t="e" vm="3">
+      <c r="AI7" s="13">
+        <f t="shared" si="1"/>
+        <v>0.11456984750753296</v>
+      </c>
+      <c r="AK7" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="F8" s="1">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8">
+        <v>830.4</v>
+      </c>
+      <c r="L8">
+        <v>16822</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.44690000000000002</v>
+      </c>
+      <c r="O8" s="5">
+        <v>25</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>95.7</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.92549999999999999</v>
+      </c>
+      <c r="S8" s="5">
+        <v>44.91</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="U8" s="1">
+        <v>109.85899999999999</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="W8" s="5">
+        <v>24.565000000000001</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>95.501000000000005</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>0.93089999999999995</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>1.3080000000000001</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0.7833</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>10.129200000000001</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>9.7559000000000005</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0.30109999999999998</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="AI8" s="16">
+        <f t="shared" si="1"/>
+        <v>0.10250207566703225</v>
+      </c>
+      <c r="AK8" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="F9" s="1">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <v>778</v>
+      </c>
+      <c r="L9">
+        <v>18254</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.39069999999999999</v>
+      </c>
+      <c r="O9" s="5">
+        <v>2.4929999999999999</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>29.161000000000001</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="S9" s="5">
+        <v>78.207999999999998</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="U9" s="1">
+        <v>152.06</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>16.039000000000001</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>0.99229999999999996</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>2.4809999999999999</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>2.9220000000000002</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0.61670000000000003</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>11.73</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>11.41</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0.2429</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="AI9" s="13">
+        <f t="shared" si="1"/>
+        <v>8.7642418930762495E-2</v>
+      </c>
+      <c r="AK9" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="F10" s="1">
+        <v>80</v>
+      </c>
+      <c r="G10" s="1">
+        <v>100</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10">
+        <v>1248</v>
+      </c>
+      <c r="L10">
+        <v>32126</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.37340000000000001</v>
+      </c>
+      <c r="O10" s="5">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>29.04</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="S10" s="5">
+        <v>90.38</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="U10" s="1">
+        <v>145.715</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="W10" s="5">
+        <v>1.595</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>20.870999999999999</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>1.593</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0.81579999999999997</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>12.87</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>12.5936</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0.18509999999999999</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="AI10" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9405412272900516E-2</v>
+      </c>
+      <c r="AK10" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="F11" s="1">
+        <v>150</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11">
+        <v>716.6</v>
+      </c>
+      <c r="L11">
+        <v>1830</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.36620000000000003</v>
+      </c>
+      <c r="O11" s="5">
+        <v>1.135</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>12.63</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0.9849</v>
+      </c>
+      <c r="S11" s="5">
+        <v>18.992999999999999</v>
+      </c>
+      <c r="T11" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U11" s="1">
+        <v>57.595999999999997</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0.8579</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0.748</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>9.2870000000000008</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>1.903</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>2.597</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>12.77</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>12.4138</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>0.2651</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="AI11" s="16">
+        <f t="shared" si="1"/>
+        <v>8.0555510802493999E-2</v>
+      </c>
+      <c r="AK11" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <f>1+A7</f>
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>540</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8">
-        <v>666.16</v>
-      </c>
-      <c r="L8">
-        <v>5222</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0.42009999999999997</v>
-      </c>
-      <c r="O8" s="5">
-        <v>6.0679999999999996</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>49.238999999999997</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0.97240000000000004</v>
-      </c>
-      <c r="S8" s="5">
-        <v>25.398</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="U8" s="1">
-        <v>99.397000000000006</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0.91759999999999997</v>
-      </c>
-      <c r="W8" s="5">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="X8" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>16.547999999999998</v>
-      </c>
-      <c r="Z8" s="6">
-        <v>0.98760000000000003</v>
-      </c>
-      <c r="AA8" s="5">
-        <v>0.626</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>0.97219999999999995</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>3.9195000000000002</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>3.0278</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>0.83760000000000001</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="AJ8" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f>1+A8</f>
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>540</v>
-      </c>
-      <c r="F9" s="1">
-        <v>20</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9">
-        <v>594.79</v>
-      </c>
-      <c r="L9">
-        <v>10474</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0.52590000000000003</v>
-      </c>
-      <c r="O9" s="5">
-        <v>2.5990000000000002</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>34.106999999999999</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0.98380000000000001</v>
-      </c>
-      <c r="S9" s="5">
-        <v>26.956</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="U9" s="1">
-        <v>109.926</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0.871</v>
-      </c>
-      <c r="W9" s="5">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="X9" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>10.912000000000001</v>
-      </c>
-      <c r="Z9" s="6">
-        <v>0.99660000000000004</v>
-      </c>
-      <c r="AA9" s="5">
-        <v>1.7450000000000001</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>2.37</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>0.71109999999999995</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>8.8048000000000002</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>7.9995000000000003</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>0.72970000000000002</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>7.5700000000000003E-2</v>
-      </c>
-      <c r="AJ9" t="e" vm="5">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f t="shared" ref="A10:A32" si="2">1+A9</f>
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10">
-        <v>440</v>
-      </c>
-      <c r="L10">
-        <v>8860</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0.52580000000000005</v>
-      </c>
-      <c r="O10" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>7.3959999999999999</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0.98529999999999995</v>
-      </c>
-      <c r="S10" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="U10" s="1">
-        <v>10.558</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0.95630000000000004</v>
-      </c>
-      <c r="W10" s="5">
-        <v>0.44</v>
-      </c>
-      <c r="X10" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>6.6349999999999998</v>
-      </c>
-      <c r="Z10" s="6">
-        <v>0.99160000000000004</v>
-      </c>
-      <c r="AA10" s="5">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>0.85709999999999997</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>10.0661</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>8.4074000000000009</v>
-      </c>
-      <c r="AG10" s="1">
-        <v>1.611</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="AJ10" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1">
-        <v>50</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="F11" s="1">
-        <v>20</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>685.9</v>
-      </c>
-      <c r="L11">
-        <v>12420</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0.48220000000000002</v>
-      </c>
-      <c r="O11" s="5">
-        <v>5.2389999999999999</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>46.487000000000002</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0.96730000000000005</v>
-      </c>
-      <c r="S11" s="5">
-        <v>31.451000000000001</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="U11" s="1">
-        <v>114.63</v>
-      </c>
-      <c r="V11" s="3">
-        <v>0.85829999999999995</v>
-      </c>
-      <c r="W11" s="5">
-        <v>1.097</v>
-      </c>
-      <c r="X11" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>17.423999999999999</v>
-      </c>
-      <c r="Z11" s="6">
-        <v>0.98629999999999995</v>
-      </c>
-      <c r="AA11" s="5">
-        <v>1.387</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>1.62</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>0.74360000000000004</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>7.7610000000000001</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>1.2346999999999999</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>5.6899999999999999E-2</v>
-      </c>
-      <c r="AJ11" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
@@ -6978,97 +7266,102 @@
         <v>18</v>
       </c>
       <c r="D12" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ref="E12" si="3" xml:space="preserve"> D12*C12</f>
-        <v>900</v>
+        <f t="shared" si="2"/>
+        <v>540</v>
       </c>
       <c r="F12" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1">
         <v>1000</v>
       </c>
-      <c r="H12">
-        <v>1</v>
+      <c r="H12" t="s">
+        <v>38</v>
       </c>
       <c r="J12">
-        <v>688.38900000000001</v>
+        <v>666.16</v>
       </c>
       <c r="L12">
-        <v>12184</v>
+        <v>5222</v>
       </c>
       <c r="N12" s="3">
-        <v>0.46689999999999998</v>
+        <v>0.42009999999999997</v>
       </c>
       <c r="O12" s="5">
-        <v>6.7930000000000001</v>
+        <v>6.0679999999999996</v>
       </c>
       <c r="P12" s="1">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="Q12" s="1">
-        <v>50.526000000000003</v>
+        <v>49.238999999999997</v>
       </c>
       <c r="R12" s="3">
-        <v>0.96189999999999998</v>
+        <v>0.97240000000000004</v>
       </c>
       <c r="S12" s="5">
-        <v>36.012</v>
+        <v>25.398</v>
       </c>
       <c r="T12" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="U12" s="1">
-        <v>120.91800000000001</v>
+        <v>99.397000000000006</v>
       </c>
       <c r="V12" s="3">
-        <v>0.8609</v>
+        <v>0.91759999999999997</v>
       </c>
       <c r="W12" s="5">
-        <v>2.8940000000000001</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="X12" s="1">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="Y12" s="1">
-        <v>28.529</v>
+        <v>16.547999999999998</v>
       </c>
       <c r="Z12" s="6">
-        <v>0.97619999999999996</v>
+        <v>0.98760000000000003</v>
       </c>
       <c r="AA12" s="5">
-        <v>1.214</v>
+        <v>0.626</v>
       </c>
       <c r="AB12" s="1">
-        <v>0.75</v>
+        <v>0.36</v>
       </c>
       <c r="AC12" s="1">
-        <v>1.728</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="AD12" s="3">
-        <v>0.8649</v>
+        <v>0.97219999999999995</v>
       </c>
       <c r="AE12" s="1">
-        <v>8.8496000000000006</v>
+        <v>3.9195000000000002</v>
       </c>
       <c r="AF12" s="1">
-        <v>7.7514000000000003</v>
+        <v>3.0278</v>
       </c>
       <c r="AG12" s="1">
-        <v>1.0044999999999999</v>
+        <v>0.83760000000000001</v>
       </c>
       <c r="AH12" s="1">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="AJ12" t="e" vm="8">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AI12" s="13">
+        <f t="shared" si="1"/>
+        <v>0.33027280533720854</v>
+      </c>
+      <c r="AK12" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>40</v>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f>1+A12</f>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>30</v>
@@ -7077,11 +7370,11 @@
         <v>18</v>
       </c>
       <c r="D13" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13" si="4" xml:space="preserve"> D13*C13</f>
-        <v>900</v>
+        <f t="shared" si="2"/>
+        <v>540</v>
       </c>
       <c r="F13" s="1">
         <v>20</v>
@@ -7089,85 +7382,90 @@
       <c r="G13" s="1">
         <v>1000</v>
       </c>
-      <c r="H13">
-        <v>2</v>
+      <c r="H13" t="s">
+        <v>38</v>
       </c>
       <c r="J13">
-        <v>748.63</v>
+        <v>594.79</v>
       </c>
       <c r="L13">
-        <v>12098</v>
+        <v>10474</v>
       </c>
       <c r="N13" s="3">
-        <v>0.46879999999999999</v>
+        <v>0.52590000000000003</v>
       </c>
       <c r="O13" s="5">
-        <v>6.5209999999999999</v>
+        <v>2.5990000000000002</v>
       </c>
       <c r="P13" s="1">
         <v>0.03</v>
       </c>
       <c r="Q13" s="1">
-        <v>47.959000000000003</v>
+        <v>34.106999999999999</v>
       </c>
       <c r="R13" s="3">
-        <v>0.96209999999999996</v>
+        <v>0.98380000000000001</v>
       </c>
       <c r="S13" s="5">
-        <v>42.654000000000003</v>
+        <v>26.956</v>
       </c>
       <c r="T13" s="1">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="U13" s="1">
-        <v>121.774</v>
+        <v>109.926</v>
       </c>
       <c r="V13" s="3">
-        <v>0.81130000000000002</v>
+        <v>0.871</v>
       </c>
       <c r="W13" s="5">
-        <v>1.448</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Y13" s="1">
-        <v>18.527999999999999</v>
+        <v>10.912000000000001</v>
       </c>
       <c r="Z13" s="6">
-        <v>0.98740000000000006</v>
+        <v>0.99660000000000004</v>
       </c>
       <c r="AA13" s="5">
-        <v>3.6219999999999999</v>
+        <v>1.7450000000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1.0449999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="AC13" s="1">
-        <v>5.66</v>
+        <v>2.37</v>
       </c>
       <c r="AD13" s="3">
-        <v>0.55769999999999997</v>
+        <v>0.71109999999999995</v>
       </c>
       <c r="AE13" s="1">
-        <v>8.0800999999999998</v>
+        <v>8.8048000000000002</v>
       </c>
       <c r="AF13" s="1">
-        <v>7.0194999999999999</v>
+        <v>7.9995000000000003</v>
       </c>
       <c r="AG13" s="1">
-        <v>0.99109999999999998</v>
+        <v>0.72970000000000002</v>
       </c>
       <c r="AH13" s="1">
-        <v>6.9500000000000006E-2</v>
-      </c>
-      <c r="AJ13" t="e" vm="9">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="AI13" s="13">
+        <f t="shared" si="1"/>
+        <v>0.12500781298831176</v>
+      </c>
+      <c r="AK13" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>41</v>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" ref="A14:A37" si="3">1+A13</f>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>30</v>
@@ -7179,94 +7477,99 @@
         <v>50</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ref="E14" si="5" xml:space="preserve"> D14*C14</f>
+        <f t="shared" si="2"/>
         <v>900</v>
       </c>
       <c r="F14" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1">
         <v>1000</v>
       </c>
-      <c r="H14">
-        <v>4</v>
+      <c r="H14" t="s">
+        <v>38</v>
       </c>
       <c r="J14">
-        <v>811.1</v>
+        <v>440</v>
       </c>
       <c r="L14">
-        <v>14290</v>
+        <v>8860</v>
       </c>
       <c r="N14" s="3">
-        <v>0.49370000000000003</v>
+        <v>0.52580000000000005</v>
       </c>
       <c r="O14" s="5">
-        <v>4.8099999999999996</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="P14" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>7.3959999999999999</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="S14" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="T14" s="1">
         <v>0.03</v>
       </c>
-      <c r="Q14" s="1">
-        <v>43.331000000000003</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0.97440000000000004</v>
-      </c>
-      <c r="S14" s="5">
-        <v>35.622999999999998</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0.05</v>
-      </c>
       <c r="U14" s="1">
-        <v>120.539</v>
+        <v>10.558</v>
       </c>
       <c r="V14" s="3">
-        <v>0.85860000000000003</v>
+        <v>0.95630000000000004</v>
       </c>
       <c r="W14" s="5">
-        <v>1.4259999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="X14" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Y14" s="1">
-        <v>19.37</v>
+        <v>6.6349999999999998</v>
       </c>
       <c r="Z14" s="6">
-        <v>0.9889</v>
+        <v>0.99160000000000004</v>
       </c>
       <c r="AA14" s="5">
-        <v>1.5529999999999999</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>0.745</v>
+        <v>0.62</v>
       </c>
       <c r="AC14" s="1">
-        <v>2.036</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="AD14" s="3">
-        <v>0.75</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="AE14" s="1">
-        <v>8.8092000000000006</v>
+        <v>10.0661</v>
       </c>
       <c r="AF14" s="1">
-        <v>7.8784000000000001</v>
+        <v>8.4074000000000009</v>
       </c>
       <c r="AG14" s="1">
-        <v>0.87170000000000003</v>
+        <v>1.611</v>
       </c>
       <c r="AH14" s="1">
-        <v>5.9200000000000003E-2</v>
-      </c>
-      <c r="AJ14" t="e" vm="10">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="AI14" s="13">
+        <f t="shared" si="1"/>
+        <v>0.11894283607298331</v>
+      </c>
+      <c r="AK14" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>30</v>
@@ -7278,7 +7581,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ref="E15:E16" si="6" xml:space="preserve"> D15*C15</f>
+        <f t="shared" si="2"/>
         <v>900</v>
       </c>
       <c r="F15" s="1">
@@ -7288,97 +7591,101 @@
         <v>1000</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>637.21</v>
+        <v>685.9</v>
       </c>
       <c r="L15">
-        <v>11600</v>
+        <v>12420</v>
       </c>
       <c r="N15" s="3">
-        <v>0.53029999999999999</v>
+        <v>0.48220000000000002</v>
       </c>
       <c r="O15" s="5">
-        <v>3.37</v>
+        <v>5.2389999999999999</v>
       </c>
       <c r="P15" s="1">
         <v>0.03</v>
       </c>
       <c r="Q15" s="1">
-        <v>36.954999999999998</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0.98340000000000005</v>
+        <v>46.487000000000002</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0.96730000000000005</v>
       </c>
       <c r="S15" s="5">
-        <v>21.295999999999999</v>
+        <v>31.451000000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="U15" s="1">
-        <v>97.634</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0.82709999999999995</v>
+        <v>114.63</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0.85829999999999995</v>
       </c>
       <c r="W15" s="5">
-        <v>0.91</v>
+        <v>1.097</v>
       </c>
       <c r="X15" s="1">
         <v>0.03</v>
       </c>
       <c r="Y15" s="1">
-        <v>15.805</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>0.99370000000000003</v>
+        <v>17.423999999999999</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>0.98629999999999995</v>
       </c>
       <c r="AA15" s="5">
-        <v>2.335</v>
+        <v>1.387</v>
       </c>
       <c r="AB15" s="1">
-        <v>0.63</v>
+        <v>0.7</v>
       </c>
       <c r="AC15" s="1">
-        <v>3.21</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>0.68089999999999995</v>
+        <v>1.62</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0.74360000000000004</v>
       </c>
       <c r="AE15" s="1">
-        <v>9.1</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="AF15" s="1">
-        <v>7.9737999999999998</v>
+        <v>7.7610000000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1.0546</v>
+        <v>1.2346999999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>7.3800000000000004E-2</v>
-      </c>
-      <c r="AJ15" t="e" vm="11">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="AI15" s="13">
+        <f t="shared" si="1"/>
+        <v>0.12884937508053085</v>
+      </c>
+      <c r="AK15" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="1">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="6"/>
-        <v>720</v>
+        <f t="shared" ref="E16" si="4" xml:space="preserve"> D16*C16</f>
+        <v>900</v>
       </c>
       <c r="F16" s="1">
         <v>20</v>
@@ -7386,193 +7693,205 @@
       <c r="G16" s="1">
         <v>1000</v>
       </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
       <c r="J16">
-        <v>581.38</v>
+        <v>688.38900000000001</v>
       </c>
       <c r="L16">
-        <v>5232</v>
+        <v>12184</v>
       </c>
       <c r="N16" s="3">
-        <v>0.4123</v>
+        <v>0.46689999999999998</v>
       </c>
       <c r="O16" s="5">
-        <v>0.63800000000000001</v>
+        <v>6.7930000000000001</v>
       </c>
       <c r="P16" s="1">
         <v>0.03</v>
       </c>
       <c r="Q16" s="1">
-        <v>6.1980000000000004</v>
-      </c>
-      <c r="R16" s="2">
-        <v>0.9637</v>
+        <v>50.526000000000003</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.96189999999999998</v>
       </c>
       <c r="S16" s="5">
-        <v>2.1320000000000001</v>
+        <v>36.012</v>
       </c>
       <c r="T16" s="1">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U16" s="1">
-        <v>11.194000000000001</v>
-      </c>
-      <c r="V16" s="2">
-        <v>0.873</v>
+        <v>120.91800000000001</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0.8609</v>
       </c>
       <c r="W16" s="5">
-        <v>98.81</v>
+        <v>2.8940000000000001</v>
       </c>
       <c r="X16" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>28.529</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>0.97619999999999996</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>1.214</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>1.728</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>0.8649</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>8.8496000000000006</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>7.7514000000000003</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>1.0044999999999999</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="AI16" s="13">
+        <f t="shared" si="1"/>
+        <v>0.12900895322135356</v>
+      </c>
+      <c r="AK16" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" ref="E17" si="5" xml:space="preserve"> D17*C17</f>
+        <v>900</v>
+      </c>
+      <c r="F17" s="1">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>748.63</v>
+      </c>
+      <c r="L17">
+        <v>12098</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.46879999999999999</v>
+      </c>
+      <c r="O17" s="5">
+        <v>6.5209999999999999</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>47.959000000000003</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0.96209999999999996</v>
+      </c>
+      <c r="S17" s="5">
+        <v>42.654000000000003</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="U17" s="1">
+        <v>121.774</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0.81130000000000002</v>
+      </c>
+      <c r="W17" s="5">
+        <v>1.448</v>
+      </c>
+      <c r="X17" s="1">
         <v>0.02</v>
       </c>
-      <c r="Y16" s="1">
-        <v>4.7469999999999999</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>0.98809999999999998</v>
-      </c>
-      <c r="AA16" s="5">
-        <v>4.6669999999999998</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>6.931</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0.62070000000000003</v>
-      </c>
-      <c r="AE16" s="1">
-        <v>4.4996</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>3.7635000000000001</v>
-      </c>
-      <c r="AG16" s="1">
-        <v>0.63639999999999997</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="AJ16" t="e" vm="12">
+      <c r="Y17" s="1">
+        <v>18.527999999999999</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>3.6219999999999999</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>5.66</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0.55769999999999997</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>8.0800999999999998</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>7.0194999999999999</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="AI17" s="13">
+        <f t="shared" si="1"/>
+        <v>0.14246028919438708</v>
+      </c>
+      <c r="AK17" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <f>1+A11</f>
-        <v>9</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="5">
-        <v>90</v>
-      </c>
-      <c r="D17" s="5">
-        <v>5</v>
-      </c>
-      <c r="E17" s="5">
-        <f xml:space="preserve"> D17*C17</f>
-        <v>450</v>
-      </c>
-      <c r="F17" s="5">
-        <v>5</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1000</v>
-      </c>
-      <c r="J17" s="10">
-        <v>222.1</v>
-      </c>
-      <c r="L17" s="10">
-        <v>442</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0.2923</v>
-      </c>
-      <c r="O17" s="5">
-        <v>1.1625000000000001</v>
-      </c>
-      <c r="P17" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>7.5579999999999998</v>
-      </c>
-      <c r="R17" s="12">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="S17" s="5">
-        <v>2.7429999999999999</v>
-      </c>
-      <c r="T17" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="U17" s="5">
-        <v>9.0329999999999995</v>
-      </c>
-      <c r="V17" s="12">
-        <v>0.84509999999999996</v>
-      </c>
-      <c r="W17" s="5">
-        <v>1.0860000000000001</v>
-      </c>
-      <c r="X17" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="Y17" s="5">
-        <v>6.8869999999999996</v>
-      </c>
-      <c r="Z17" s="12">
-        <v>0.95040000000000002</v>
-      </c>
-      <c r="AA17" s="5">
-        <v>1.252</v>
-      </c>
-      <c r="AB17" s="5">
-        <v>1.03</v>
-      </c>
-      <c r="AC17" s="5">
-        <v>1.264</v>
-      </c>
-      <c r="AD17" s="12">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="AE17" s="5">
-        <v>0.995</v>
-      </c>
-      <c r="AF17" s="5">
-        <v>0.63480000000000003</v>
-      </c>
-      <c r="AG17" s="5">
-        <v>0.31969999999999998</v>
-      </c>
-      <c r="AH17" s="5">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="AJ17" s="10" t="e" vm="13">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="1">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E18:E24" si="7" xml:space="preserve"> D18*C18</f>
-        <v>450</v>
+        <f t="shared" ref="E18" si="6" xml:space="preserve"> D18*C18</f>
+        <v>900</v>
       </c>
       <c r="F18" s="1">
         <v>20</v>
@@ -7580,282 +7899,409 @@
       <c r="G18" s="1">
         <v>1000</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="5"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="5"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="5"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="5"/>
-      <c r="AD18" s="2"/>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>811.1</v>
+      </c>
+      <c r="L18">
+        <v>14290</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.49370000000000003</v>
+      </c>
+      <c r="O18" s="5">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>43.331000000000003</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="S18" s="5">
+        <v>35.622999999999998</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="U18" s="1">
+        <v>120.539</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0.85860000000000003</v>
+      </c>
+      <c r="W18" s="5">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>19.37</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>0.9889</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>1.5529999999999999</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0.745</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>2.036</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>8.8092000000000006</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>7.8784000000000001</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>0.87170000000000003</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="AI18" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1269293257514216</v>
+      </c>
+      <c r="AK18" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <f t="shared" si="2"/>
-        <v>11</v>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="1">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="7"/>
-        <v>1350</v>
+        <f t="shared" ref="E19:E21" si="7" xml:space="preserve"> D19*C19</f>
+        <v>900</v>
       </c>
       <c r="F19" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G19" s="1">
         <v>1000</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="5"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="5"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="5"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="5"/>
-      <c r="AD19" s="2"/>
+      <c r="H19">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>637.21</v>
+      </c>
+      <c r="L19">
+        <v>11600</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.53029999999999999</v>
+      </c>
+      <c r="O19" s="5">
+        <v>3.37</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>36.954999999999998</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="S19" s="5">
+        <v>21.295999999999999</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="U19" s="1">
+        <v>97.634</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="W19" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>15.805</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>2.335</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>3.21</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0.68089999999999995</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>7.9737999999999998</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>1.0546</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="AI19" s="13">
+        <f t="shared" si="1"/>
+        <v>0.12541072010835486</v>
+      </c>
+      <c r="AK19" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="5">
-        <v>90</v>
-      </c>
-      <c r="D20" s="5">
-        <v>15</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" si="7"/>
-        <v>1350</v>
-      </c>
-      <c r="F20" s="5">
-        <v>20</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1000</v>
-      </c>
-      <c r="J20">
-        <v>602</v>
-      </c>
-      <c r="L20">
-        <v>2964</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0.41389999999999999</v>
-      </c>
-      <c r="O20" s="5">
-        <v>1.264</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>15.492000000000001</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0.96360000000000001</v>
-      </c>
-      <c r="S20" s="5">
-        <v>86.19</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="U20" s="1">
-        <v>37.979999999999997</v>
-      </c>
-      <c r="V20" s="2">
-        <v>0.8619</v>
-      </c>
-      <c r="W20" s="5">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="X20" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>1.167</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>0.99170000000000003</v>
-      </c>
-      <c r="AA20" s="5">
-        <v>1.609</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>1.903</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>0.71189999999999998</v>
-      </c>
-      <c r="AE20" s="1">
-        <v>2.4588000000000001</v>
-      </c>
-      <c r="AF20" s="1">
-        <v>1.9976</v>
-      </c>
-      <c r="AG20" s="1">
-        <v>0.39650000000000002</v>
-      </c>
-      <c r="AH20" s="1">
-        <v>6.4699999999999994E-2</v>
-      </c>
-      <c r="AJ20" t="e" vm="14">
-        <v>#VALUE!</v>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="N20" s="3"/>
+      <c r="O20" s="5"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="5"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="5"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="5"/>
+      <c r="AD20" s="2"/>
+      <c r="AI20" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <f t="shared" si="2"/>
-        <v>13</v>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="1">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D21" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="7"/>
-        <v>2700</v>
+        <v>720</v>
       </c>
       <c r="F21" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G21" s="1">
         <v>1000</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="5"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="5"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="5"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="5"/>
-      <c r="AD21" s="2"/>
+      <c r="J21">
+        <v>581.38</v>
+      </c>
+      <c r="L21">
+        <v>5232</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.4123</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>6.1980000000000004</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.9637</v>
+      </c>
+      <c r="S21" s="5">
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="U21" s="1">
+        <v>11.194000000000001</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0.873</v>
+      </c>
+      <c r="W21" s="5">
+        <v>98.81</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>4.7469999999999999</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>4.6669999999999998</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>6.931</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>4.4996</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>3.7635000000000001</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="AI21" s="13">
+        <f t="shared" si="1"/>
+        <v>0.26571011026969577</v>
+      </c>
+      <c r="AK21" t="e" vm="16">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="22" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f>1+A15</f>
+        <v>9</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="5">
         <v>90</v>
       </c>
-      <c r="D22" s="1">
-        <v>30</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="7"/>
-        <v>2700</v>
-      </c>
-      <c r="F22" s="1">
-        <v>20</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="D22" s="5">
+        <v>5</v>
+      </c>
+      <c r="E22" s="5">
+        <f xml:space="preserve"> D22*C22</f>
+        <v>450</v>
+      </c>
+      <c r="F22" s="5">
+        <v>5</v>
+      </c>
+      <c r="G22" s="5">
         <v>1000</v>
       </c>
-      <c r="J22">
-        <v>584.42999999999995</v>
-      </c>
-      <c r="L22">
-        <v>4240</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0.3947</v>
+      <c r="J22" s="7">
+        <v>222.1</v>
+      </c>
+      <c r="L22" s="7">
+        <v>442</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0.2923</v>
       </c>
       <c r="O22" s="5">
-        <v>0.48</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>3.4340000000000002</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0.9708</v>
+        <v>1.1625000000000001</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>7.5579999999999998</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0.90500000000000003</v>
       </c>
       <c r="S22" s="5">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="T22" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="U22" s="1">
-        <v>5.52</v>
-      </c>
-      <c r="V22" s="2">
-        <v>0.94430000000000003</v>
+        <v>2.7429999999999999</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="U22" s="5">
+        <v>9.0329999999999995</v>
+      </c>
+      <c r="V22" s="9">
+        <v>0.84509999999999996</v>
       </c>
       <c r="W22" s="5">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="X22" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>1.839</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>0.9909</v>
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="X22" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>6.8869999999999996</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>0.95040000000000002</v>
       </c>
       <c r="AA22" s="5">
-        <v>1.5189999999999999</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>0.745</v>
-      </c>
-      <c r="AC22" s="1">
-        <v>1.877</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>0.72919999999999996</v>
-      </c>
-      <c r="AE22" s="1">
-        <v>3.6274999999999999</v>
-      </c>
-      <c r="AF22" s="1">
-        <v>2.44</v>
-      </c>
-      <c r="AG22" s="1">
-        <v>1.1053999999999999</v>
-      </c>
-      <c r="AH22" s="1">
-        <v>8.2100000000000006E-2</v>
-      </c>
-      <c r="AJ22" t="e" vm="15">
+        <v>1.252</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>1.03</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>1.264</v>
+      </c>
+      <c r="AD22" s="9">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AE22" s="5">
+        <v>0.995</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>0.63480000000000003</v>
+      </c>
+      <c r="AG22" s="5">
+        <v>0.31969999999999998</v>
+      </c>
+      <c r="AH22" s="5">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="AI22" s="13">
+        <f t="shared" si="1"/>
+        <v>1.575299306868305</v>
+      </c>
+      <c r="AK22" s="7" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>30</v>
@@ -7864,19 +8310,19 @@
         <v>90</v>
       </c>
       <c r="D23" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="7"/>
-        <v>4500</v>
+        <f t="shared" ref="E23:E29" si="8" xml:space="preserve"> D23*C23</f>
+        <v>450</v>
       </c>
       <c r="F23" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G23" s="1">
         <v>1000</v>
       </c>
-      <c r="N23" s="2"/>
+      <c r="N23" s="3"/>
       <c r="O23" s="5"/>
       <c r="R23" s="2"/>
       <c r="S23" s="5"/>
@@ -7885,11 +8331,15 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="5"/>
       <c r="AD23" s="2"/>
+      <c r="AI23" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>30</v>
@@ -7898,14 +8348,14 @@
         <v>90</v>
       </c>
       <c r="D24" s="1">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="7"/>
-        <v>4500</v>
+        <f t="shared" si="8"/>
+        <v>1350</v>
       </c>
       <c r="F24" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G24" s="1">
         <v>1000</v>
@@ -7919,231 +8369,331 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="5"/>
       <c r="AD24" s="2"/>
+      <c r="AI24" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="B25" s="1" t="s">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="1">
-        <v>160</v>
-      </c>
-      <c r="D25" s="1">
-        <v>5</v>
-      </c>
-      <c r="E25" s="1">
-        <f xml:space="preserve"> D25*C25</f>
-        <v>800</v>
-      </c>
-      <c r="F25" s="1">
-        <v>5</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="C25" s="5">
+        <v>90</v>
+      </c>
+      <c r="D25" s="5">
+        <v>15</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="8"/>
+        <v>1350</v>
+      </c>
+      <c r="F25" s="5">
+        <v>20</v>
+      </c>
+      <c r="G25" s="5">
         <v>1000</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="5"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="5"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="5"/>
-      <c r="AA25" s="5"/>
+      <c r="J25">
+        <v>602</v>
+      </c>
+      <c r="L25">
+        <v>2964</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0.41389999999999999</v>
+      </c>
+      <c r="O25" s="5">
+        <v>1.264</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>15.492000000000001</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0.96360000000000001</v>
+      </c>
+      <c r="S25" s="5">
+        <v>86.19</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="U25" s="1">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0.8619</v>
+      </c>
+      <c r="W25" s="5">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="X25" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>1.167</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>1.609</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>1.903</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>0.71189999999999998</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>2.4588000000000001</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>1.9976</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="AI25" s="13">
+        <f t="shared" si="1"/>
+        <v>0.50060072086503804</v>
+      </c>
+      <c r="AK25" t="e" vm="18">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="1">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="D26" s="1">
+        <v>30</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="8"/>
+        <v>2700</v>
+      </c>
+      <c r="F26" s="1">
         <v>5</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" ref="E26:E32" si="8" xml:space="preserve"> D26*C26</f>
-        <v>800</v>
-      </c>
-      <c r="F26" s="1">
-        <v>20</v>
       </c>
       <c r="G26" s="1">
         <v>1000</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="5"/>
+      <c r="R26" s="2"/>
       <c r="S26" s="5"/>
       <c r="V26" s="2"/>
       <c r="W26" s="5"/>
+      <c r="Z26" s="2"/>
       <c r="AA26" s="5"/>
+      <c r="AD26" s="2"/>
+      <c r="AI26" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="1">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="D27" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="8"/>
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="F27" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G27" s="1">
         <v>1000</v>
       </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="AA27" s="5"/>
+      <c r="J27">
+        <v>584.42999999999995</v>
+      </c>
+      <c r="L27">
+        <v>4240</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.3947</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>3.4340000000000002</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0.9708</v>
+      </c>
+      <c r="S27" s="5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="U27" s="1">
+        <v>5.52</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0.94430000000000003</v>
+      </c>
+      <c r="W27" s="5">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>1.839</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>0.9909</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0.745</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>1.877</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>3.6274999999999999</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>2.44</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>1.1053999999999999</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="AI27" s="13">
+        <f t="shared" si="1"/>
+        <v>0.4098360655737705</v>
+      </c>
+      <c r="AK27" t="e" vm="19">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="B28" s="5" t="s">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="5">
-        <v>160</v>
-      </c>
-      <c r="D28" s="5">
-        <v>15</v>
-      </c>
-      <c r="E28" s="5">
+      <c r="C28" s="1">
+        <v>90</v>
+      </c>
+      <c r="D28" s="1">
+        <v>50</v>
+      </c>
+      <c r="E28" s="1">
         <f t="shared" si="8"/>
-        <v>2400</v>
-      </c>
-      <c r="F28" s="5">
-        <v>20</v>
-      </c>
-      <c r="G28" s="5">
+        <v>4500</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1">
         <v>1000</v>
       </c>
-      <c r="J28">
-        <v>616.15</v>
-      </c>
-      <c r="L28">
-        <v>2332</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0.28270000000000001</v>
-      </c>
-      <c r="O28" s="5">
-        <v>6.1529999999999996</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>37.957999999999998</v>
-      </c>
-      <c r="R28" s="1">
-        <v>90.74</v>
-      </c>
-      <c r="S28" s="5">
-        <v>8.641</v>
-      </c>
-      <c r="T28" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="U28" s="1">
-        <v>32.439</v>
-      </c>
-      <c r="V28" s="1">
-        <v>79.150000000000006</v>
-      </c>
-      <c r="W28" s="5">
-        <v>5.49</v>
-      </c>
-      <c r="X28" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>40.424999999999997</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>96.09</v>
-      </c>
-      <c r="AA28" s="5">
-        <v>2.4510000000000001</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="AC28" s="1">
-        <v>2.726</v>
-      </c>
-      <c r="AD28" s="1">
-        <v>58.97</v>
-      </c>
-      <c r="AE28" s="1">
-        <v>1.8924000000000001</v>
-      </c>
-      <c r="AF28" s="1">
-        <v>1.3697999999999999</v>
-      </c>
-      <c r="AG28" s="1">
-        <v>0.45929999999999999</v>
-      </c>
-      <c r="AH28" s="1">
-        <v>6.3299999999999995E-2</v>
-      </c>
-      <c r="AJ28" t="e" vm="16">
-        <v>#VALUE!</v>
+      <c r="N28" s="2"/>
+      <c r="O28" s="5"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="5"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="5"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="5"/>
+      <c r="AD28" s="2"/>
+      <c r="AI28" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="1">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="D29" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="8"/>
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="F29" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G29" s="1">
         <v>1000</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="5"/>
+      <c r="R29" s="2"/>
       <c r="S29" s="5"/>
+      <c r="V29" s="2"/>
       <c r="W29" s="5"/>
+      <c r="Z29" s="2"/>
       <c r="AA29" s="5"/>
+      <c r="AD29" s="2"/>
+      <c r="AI29" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
@@ -8152,28 +8702,34 @@
         <v>160</v>
       </c>
       <c r="D30" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="8"/>
-        <v>4800</v>
+        <f xml:space="preserve"> D30*C30</f>
+        <v>800</v>
       </c>
       <c r="F30" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G30" s="1">
         <v>1000</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="5"/>
+      <c r="R30" s="2"/>
       <c r="S30" s="5"/>
+      <c r="V30" s="2"/>
       <c r="W30" s="5"/>
       <c r="AA30" s="5"/>
+      <c r="AI30" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>30</v>
@@ -8182,14 +8738,14 @@
         <v>160</v>
       </c>
       <c r="D31" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="8"/>
-        <v>8000</v>
+        <f t="shared" ref="E31:E37" si="9" xml:space="preserve"> D31*C31</f>
+        <v>800</v>
       </c>
       <c r="F31" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G31" s="1">
         <v>1000</v>
@@ -8197,13 +8753,18 @@
       <c r="N31" s="2"/>
       <c r="O31" s="5"/>
       <c r="S31" s="5"/>
+      <c r="V31" s="2"/>
       <c r="W31" s="5"/>
       <c r="AA31" s="5"/>
+      <c r="AI31" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>30</v>
@@ -8212,14 +8773,14 @@
         <v>160</v>
       </c>
       <c r="D32" s="1">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="8"/>
-        <v>8000</v>
+        <f t="shared" si="9"/>
+        <v>2400</v>
       </c>
       <c r="F32" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G32" s="1">
         <v>1000</v>
@@ -8229,38 +8790,263 @@
       <c r="S32" s="5"/>
       <c r="W32" s="5"/>
       <c r="AA32" s="5"/>
+      <c r="AI32" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N33" s="2"/>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="5">
+        <v>160</v>
+      </c>
+      <c r="D33" s="5">
+        <v>15</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="9"/>
+        <v>2400</v>
+      </c>
+      <c r="F33" s="5">
+        <v>20</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J33">
+        <v>616.15</v>
+      </c>
+      <c r="L33">
+        <v>2332</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0.28270000000000001</v>
+      </c>
+      <c r="O33" s="5">
+        <v>6.1529999999999996</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>37.957999999999998</v>
+      </c>
+      <c r="R33" s="1">
+        <v>90.74</v>
+      </c>
+      <c r="S33" s="5">
+        <v>8.641</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="U33" s="1">
+        <v>32.439</v>
+      </c>
+      <c r="V33" s="1">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="W33" s="5">
+        <v>5.49</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>40.424999999999997</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>96.09</v>
+      </c>
+      <c r="AA33" s="5">
+        <v>2.4510000000000001</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>2.726</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>58.97</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>1.8924000000000001</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>1.3697999999999999</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>0.45929999999999999</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="AI33" s="13">
+        <f t="shared" si="1"/>
+        <v>0.73003358154475106</v>
+      </c>
+      <c r="AK33" t="e" vm="20">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1">
+        <v>160</v>
+      </c>
+      <c r="D34" s="1">
+        <v>30</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="9"/>
+        <v>4800</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1000</v>
+      </c>
       <c r="N34" s="2"/>
+      <c r="O34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1">
+        <v>160</v>
+      </c>
+      <c r="D35" s="1">
+        <v>30</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="9"/>
+        <v>4800</v>
+      </c>
+      <c r="F35" s="1">
+        <v>20</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1000</v>
+      </c>
       <c r="N35" s="2"/>
+      <c r="O35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1">
+        <v>160</v>
+      </c>
+      <c r="D36" s="1">
+        <v>50</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="9"/>
+        <v>8000</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1000</v>
+      </c>
       <c r="N36" s="2"/>
+      <c r="O36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="1">
+        <v>160</v>
+      </c>
+      <c r="D37" s="1">
+        <v>50</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="9"/>
+        <v>8000</v>
+      </c>
+      <c r="F37" s="1">
+        <v>20</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1000</v>
+      </c>
       <c r="N37" s="2"/>
+      <c r="O37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="N46" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AK1:AK3"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="O2:AD2"/>
     <mergeCell ref="AE2:AH2"/>
@@ -8275,8 +9061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D25F63A-C058-4D39-81FB-E6C54BECB898}">
   <dimension ref="A1:AJ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V41" sqref="V41"/>
+    <sheetView topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI35" sqref="AI35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8478,6 +9264,10 @@
       <c r="AH26" s="1">
         <v>8.3699999999999997E-2</v>
       </c>
+      <c r="AI26">
+        <f>1000/AF26</f>
+        <v>114.56984750753296</v>
+      </c>
       <c r="AJ26" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
@@ -8574,6 +9364,10 @@
       <c r="AH27" s="1">
         <v>9.8000000000000004E-2</v>
       </c>
+      <c r="AI27">
+        <f t="shared" ref="AI27:AI29" si="1">1000/AF27</f>
+        <v>265.71011026969575</v>
+      </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -8666,7 +9460,11 @@
       <c r="AH28" s="1">
         <v>6.4699999999999994E-2</v>
       </c>
-      <c r="AJ28" t="e" vm="14">
+      <c r="AI28">
+        <f t="shared" si="1"/>
+        <v>500.60072086503806</v>
+      </c>
+      <c r="AJ28" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -8761,7 +9559,11 @@
       <c r="AH29" s="1">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="AJ29" t="e" vm="16">
+      <c r="AI29">
+        <f t="shared" si="1"/>
+        <v>730.03358154475109</v>
+      </c>
+      <c r="AJ29" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
     </row>
